--- a/Program/Other/URS會議審查紀錄/DbLayouts/L2-業務作業/FacMain.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L2-業務作業/FacMain.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE124C61-67A2-46FD-A035-2D933743AECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22992" windowHeight="9084"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="254">
   <si>
     <t>備註說明</t>
   </si>
@@ -171,10 +172,6 @@
     <t>週期基準</t>
   </si>
   <si>
-    <t>1:日 2:月 3:週</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>資金用途別</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -501,9 +498,6 @@
   <si>
     <t>VARCHAR2</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y:是  N:否</t>
   </si>
   <si>
     <t>共用代碼檔
@@ -549,9 +543,6 @@
   <si>
     <t>擔保品設定記號</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y:是 N:否</t>
   </si>
   <si>
     <t>A: 新貸件
@@ -796,11 +787,6 @@
   </si>
   <si>
     <t>RuleCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1STEP TX -&gt; 0    (from eloan)
-2STEP TX -&gt; 1 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1070,11 +1056,22 @@
     <t>UtilBal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>1:日
+2:月
+3:週</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:1STEP TX (from eloan)
+1/2:2STEP TX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1453,6 +1450,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1488,6 +1502,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1663,11 +1694,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G84" sqref="G84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1683,14 +1714,14 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="8"/>
@@ -1703,7 +1734,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="12"/>
@@ -1711,14 +1742,14 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" s="37"/>
       <c r="C3" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="15"/>
@@ -1726,14 +1757,14 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" s="36"/>
       <c r="C4" s="13" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="15"/>
@@ -1741,14 +1772,14 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" s="36"/>
       <c r="C5" s="13" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="15"/>
@@ -1756,11 +1787,11 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="37"/>
       <c r="C6" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="7"/>
@@ -1769,11 +1800,11 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" s="38"/>
       <c r="C7" s="16" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="14"/>
@@ -1782,7 +1813,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="36"/>
       <c r="C8" s="13"/>
@@ -1819,13 +1850,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E10" s="4">
         <v>7</v>
@@ -1837,13 +1868,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E11" s="4">
         <v>3</v>
@@ -1855,13 +1886,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E12" s="4">
         <v>3</v>
@@ -1873,13 +1904,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E13" s="4">
         <v>3</v>
@@ -1891,19 +1922,19 @@
         <v>5</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E14" s="4">
         <v>7</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1911,19 +1942,19 @@
         <v>6</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E15" s="4">
         <v>7</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1931,13 +1962,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E16" s="4">
         <v>5</v>
@@ -1949,13 +1980,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>46</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E17" s="4">
         <v>2</v>
@@ -1967,13 +1998,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E18" s="4">
         <v>6</v>
@@ -1988,13 +2019,13 @@
         <v>10</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E19" s="4">
         <v>6</v>
@@ -2009,13 +2040,13 @@
         <v>11</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>24</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E20" s="4">
         <v>6</v>
@@ -2030,13 +2061,13 @@
         <v>12</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>21</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E21" s="4">
         <v>6</v>
@@ -2051,13 +2082,13 @@
         <v>13</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>22</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E22" s="4">
         <v>6</v>
@@ -2072,13 +2103,13 @@
         <v>14</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>23</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E23" s="4">
         <v>6</v>
@@ -2093,19 +2124,19 @@
         <v>15</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C24" s="21" t="s">
         <v>26</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E24" s="4">
         <v>1</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -2113,13 +2144,13 @@
         <v>16</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E25" s="4">
         <v>2</v>
@@ -2131,13 +2162,13 @@
         <v>17</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E26" s="4">
         <v>2</v>
@@ -2149,13 +2180,13 @@
         <v>18</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C27" s="16" t="s">
         <v>17</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E27" s="4">
         <v>3</v>
@@ -2167,13 +2198,13 @@
         <v>19</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E28" s="4">
         <v>16</v>
@@ -2188,13 +2219,13 @@
         <v>20</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E29" s="4">
         <v>16</v>
@@ -2209,13 +2240,13 @@
         <v>21</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E30" s="4">
         <v>16</v>
@@ -2224,7 +2255,7 @@
         <v>2</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="81" x14ac:dyDescent="0.3">
@@ -2232,19 +2263,19 @@
         <v>22</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C31" s="21" t="s">
         <v>16</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E31" s="4">
         <v>3</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -2252,13 +2283,13 @@
         <v>23</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C32" s="16" t="s">
         <v>43</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E32" s="4">
         <v>2</v>
@@ -2270,13 +2301,13 @@
         <v>24</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C33" s="16" t="s">
         <v>44</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E33" s="4">
         <v>2</v>
@@ -2288,13 +2319,13 @@
         <v>25</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>45</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E34" s="4">
         <v>3</v>
@@ -2306,13 +2337,13 @@
         <v>26</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E35" s="4">
         <v>8</v>
@@ -2324,19 +2355,19 @@
         <v>27</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E36" s="4">
         <v>8</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -2344,19 +2375,19 @@
         <v>28</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E37" s="4">
         <v>1</v>
       </c>
       <c r="G37" s="23" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="97.2" x14ac:dyDescent="0.3">
@@ -2364,39 +2395,39 @@
         <v>29</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C38" s="21" t="s">
         <v>18</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E38" s="4">
         <v>1</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>30</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C39" s="21" t="s">
         <v>47</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E39" s="4">
         <v>1</v>
       </c>
-      <c r="G39" s="19" t="s">
-        <v>48</v>
+      <c r="G39" s="16" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -2404,13 +2435,13 @@
         <v>31</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C40" s="16" t="s">
         <v>19</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E40" s="4">
         <v>2</v>
@@ -2422,13 +2453,13 @@
         <v>32</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C41" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E41" s="4">
         <v>2</v>
@@ -2440,13 +2471,13 @@
         <v>33</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C42" s="21" t="s">
         <v>28</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E42" s="4">
         <v>8</v>
@@ -2458,13 +2489,13 @@
         <v>34</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C43" s="16" t="s">
         <v>33</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E43" s="4">
         <v>3</v>
@@ -2476,13 +2507,13 @@
         <v>35</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C44" s="16" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E44" s="4">
         <v>16</v>
@@ -2497,13 +2528,13 @@
         <v>36</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E45" s="4">
         <v>16</v>
@@ -2518,19 +2549,19 @@
         <v>37</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E46" s="4">
         <v>2</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -2538,19 +2569,19 @@
         <v>38</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C47" s="21" t="s">
         <v>27</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E47" s="4">
         <v>1</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="162" x14ac:dyDescent="0.3">
@@ -2558,19 +2589,19 @@
         <v>39</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C48" s="21" t="s">
         <v>25</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E48" s="4">
         <v>2</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -2578,19 +2609,19 @@
         <v>40</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C49" s="21" t="s">
         <v>29</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E49" s="4">
         <v>1</v>
       </c>
       <c r="G49" s="16" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -2598,13 +2629,13 @@
         <v>41</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C50" s="21" t="s">
         <v>30</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E50" s="4">
         <v>8</v>
@@ -2616,19 +2647,19 @@
         <v>42</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E51" s="4">
         <v>2</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -2636,79 +2667,79 @@
         <v>43</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E52" s="4">
         <v>1</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>44</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C53" s="21" t="s">
         <v>31</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E53" s="4">
         <v>1</v>
       </c>
-      <c r="G53" s="19" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G53" s="16" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>45</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C54" s="21" t="s">
         <v>32</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E54" s="4">
         <v>1</v>
       </c>
-      <c r="G54" s="19" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G54" s="16" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>46</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C55" s="21" t="s">
         <v>39</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E55" s="4">
         <v>1</v>
       </c>
-      <c r="G55" s="19" t="s">
-        <v>133</v>
+      <c r="G55" s="16" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
@@ -2716,19 +2747,19 @@
         <v>47</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E56" s="4">
         <v>1</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="226.8" x14ac:dyDescent="0.3">
@@ -2736,19 +2767,19 @@
         <v>48</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E57" s="4">
         <v>1</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="162" x14ac:dyDescent="0.3">
@@ -2756,19 +2787,19 @@
         <v>49</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C58" s="21" t="s">
         <v>34</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E58" s="4">
         <v>2</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -2776,13 +2807,13 @@
         <v>50</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C59" s="16" t="s">
         <v>13</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E59" s="4">
         <v>6</v>
@@ -2794,13 +2825,13 @@
         <v>51</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C60" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E60" s="4">
         <v>6</v>
@@ -2812,13 +2843,13 @@
         <v>52</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C61" s="16" t="s">
         <v>41</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E61" s="4">
         <v>6</v>
@@ -2830,13 +2861,13 @@
         <v>53</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C62" s="16" t="s">
         <v>42</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E62" s="4">
         <v>6</v>
@@ -2848,13 +2879,13 @@
         <v>54</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C63" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E63" s="4">
         <v>6</v>
@@ -2866,19 +2897,19 @@
         <v>55</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E64" s="4">
         <v>6</v>
       </c>
       <c r="G64" s="16" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -2886,13 +2917,13 @@
         <v>56</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E65" s="4">
         <v>6</v>
@@ -2904,13 +2935,13 @@
         <v>57</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E66" s="4">
         <v>6</v>
@@ -2922,13 +2953,13 @@
         <v>58</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E67" s="4">
         <v>6</v>
@@ -2940,13 +2971,13 @@
         <v>59</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E68" s="4">
         <v>6</v>
@@ -2958,19 +2989,19 @@
         <v>60</v>
       </c>
       <c r="B69" s="24" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E69" s="4">
         <v>6</v>
       </c>
       <c r="G69" s="19" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="210.6" x14ac:dyDescent="0.3">
@@ -2978,20 +3009,20 @@
         <v>61</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E70" s="4">
         <v>2</v>
       </c>
       <c r="F70" s="21"/>
       <c r="G70" s="16" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -2999,20 +3030,20 @@
         <v>62</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C71" s="26" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D71" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E71" s="27">
         <v>1</v>
       </c>
       <c r="F71" s="26"/>
       <c r="G71" s="25" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -3020,13 +3051,13 @@
         <v>63</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C72" s="26" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D72" s="27" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E72" s="27">
         <v>200</v>
@@ -3039,13 +3070,13 @@
         <v>64</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C73" s="16" t="s">
         <v>35</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E73" s="4">
         <v>3</v>
@@ -3057,13 +3088,13 @@
         <v>65</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C74" s="16" t="s">
         <v>40</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E74" s="4">
         <v>8</v>
@@ -3075,37 +3106,37 @@
         <v>66</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C75" s="16" t="s">
         <v>37</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E75" s="4">
         <v>10</v>
       </c>
       <c r="G75" s="19"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>67</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E76" s="4">
         <v>1</v>
       </c>
       <c r="G76" s="16" t="s">
-        <v>143</v>
+        <v>219</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -3113,19 +3144,19 @@
         <v>68</v>
       </c>
       <c r="B77" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C77" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E77" s="4">
         <v>1</v>
       </c>
       <c r="G77" s="16" t="s">
-        <v>199</v>
+        <v>253</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -3133,19 +3164,19 @@
         <v>69</v>
       </c>
       <c r="B78" s="28" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C78" s="21" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D78" s="30" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E78" s="4">
         <v>8</v>
       </c>
       <c r="G78" s="21" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
@@ -3153,13 +3184,13 @@
         <v>70</v>
       </c>
       <c r="B79" s="28" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C79" s="21" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D79" s="30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E79" s="4">
         <v>4</v>
@@ -3171,13 +3202,13 @@
         <v>71</v>
       </c>
       <c r="B80" s="28" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D80" s="30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E80" s="4">
         <v>6</v>
@@ -3189,13 +3220,13 @@
         <v>72</v>
       </c>
       <c r="B81" s="28" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C81" s="21" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D81" s="30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E81" s="4">
         <v>8</v>
@@ -3207,37 +3238,37 @@
         <v>73</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E82" s="4">
         <v>8</v>
       </c>
       <c r="G82" s="19"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>74</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E83" s="4">
         <v>1</v>
       </c>
       <c r="G83" s="16" t="s">
-        <v>143</v>
+        <v>219</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
@@ -3245,13 +3276,13 @@
         <v>75</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E84" s="4">
         <v>4</v>
@@ -3263,20 +3294,20 @@
         <v>76</v>
       </c>
       <c r="B85" s="31" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C85" s="31" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D85" s="32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E85" s="32">
         <v>1</v>
       </c>
       <c r="F85" s="32"/>
       <c r="G85" s="31" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
@@ -3284,13 +3315,13 @@
         <v>77</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E86" s="4">
         <v>8</v>
@@ -3302,13 +3333,13 @@
         <v>78</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C87" s="16" t="s">
         <v>38</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E87" s="4">
         <v>6</v>
@@ -3323,13 +3354,13 @@
         <v>79</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E88" s="4">
         <v>8</v>
@@ -3341,13 +3372,13 @@
         <v>80</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C89" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E89" s="4">
         <v>6</v>
@@ -3378,7 +3409,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3396,7 +3427,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>8</v>
@@ -3407,131 +3438,131 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/L2-業務作業/FacMain.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L2-業務作業/FacMain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE124C61-67A2-46FD-A035-2D933743AECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E8B6F7-076C-44BD-BCB1-72722A91EA65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,16 @@
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -987,11 +996,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CdCode:ApprovedLevel
-(2021.8.27異動)by eric</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>核准層級</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1065,6 +1069,11 @@
   <si>
     <t>0:1STEP TX (from eloan)
 1/2:2STEP TX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.ApprovedLevel
+(2021.8.27異動)by eric</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2240,7 +2249,7 @@
         <v>21</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C30" s="16" t="s">
         <v>173</v>
@@ -2427,7 +2436,7 @@
         <v>1</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -2528,10 +2537,10 @@
         <v>36</v>
       </c>
       <c r="B45" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="C45" s="16" t="s">
         <v>248</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>249</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>121</v>
@@ -2787,7 +2796,7 @@
         <v>49</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C58" s="21" t="s">
         <v>34</v>
@@ -2799,7 +2808,7 @@
         <v>2</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -3022,7 +3031,7 @@
       </c>
       <c r="F70" s="21"/>
       <c r="G70" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -3054,7 +3063,7 @@
         <v>235</v>
       </c>
       <c r="C72" s="26" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D72" s="27" t="s">
         <v>222</v>
@@ -3156,7 +3165,7 @@
         <v>1</v>
       </c>
       <c r="G77" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -3297,7 +3306,7 @@
         <v>239</v>
       </c>
       <c r="C85" s="31" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D85" s="32" t="s">
         <v>129</v>
@@ -3307,7 +3316,7 @@
       </c>
       <c r="F85" s="32"/>
       <c r="G85" s="31" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
@@ -3548,7 +3557,7 @@
         <v>234</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>175</v>
@@ -3556,10 +3565,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>175</v>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/L2-業務作業/FacMain.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L2-業務作業/FacMain.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E8B6F7-076C-44BD-BCB1-72722A91EA65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFE4A5C-D480-4D0C-A241-DF872A552378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5568" yWindow="1512" windowWidth="15684" windowHeight="11412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="255">
   <si>
     <t>備註說明</t>
   </si>
@@ -1074,6 +1074,11 @@
   <si>
     <t>CdCode.ApprovedLevel
 (2021.8.27異動)by eric</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y:是(不可撤銷)
+N:否(可撤銷)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1706,8 +1711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G84" sqref="G84"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2748,7 +2753,7 @@
         <v>1</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>219</v>
+        <v>254</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
